--- a/biology/Zoologie/Cambalida/Cambalida.xlsx
+++ b/biology/Zoologie/Cambalida/Cambalida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cambalida est un genre d'araignées aranéomorphes de la famille des Corinnidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cambalida est un genre d'araignées aranéomorphes de la famille des Corinnidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne et en Inde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne et en Inde.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 21.5, 06/01/2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 21.5, 06/01/2021) :
 Cambalida compressa Haddad, 2012
 Cambalida coriacea Simon, 1909
 Cambalida deminuta (Simon, 1909)
@@ -587,7 +603,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1909 : « Arachnides recueillis par L. Fea sur la côte occidentale d'Afrique. 2e partie. » Annali del Museo Civico di Storia Naturale di Genova, vol. 44, p. 335-449 (texte intégral).</t>
         </is>
